--- a/000_Diversikum/Testaufbau/Golfball/2/Bugsearch.xlsx
+++ b/000_Diversikum/Testaufbau/Golfball/2/Bugsearch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="12585" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all out" sheetId="1" r:id="rId1"/>
@@ -4399,8 +4399,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68530560"/>
-        <c:axId val="68532096"/>
+        <c:axId val="73373184"/>
+        <c:axId val="73374720"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5758,11 +5758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114209920"/>
-        <c:axId val="68533632"/>
+        <c:axId val="73382144"/>
+        <c:axId val="73380608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68530560"/>
+        <c:axId val="73373184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,12 +5771,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68532096"/>
+        <c:crossAx val="73374720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68532096"/>
+        <c:axId val="73374720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,12 +5786,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68530560"/>
+        <c:crossAx val="73373184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68533632"/>
+        <c:axId val="73380608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5802,12 +5802,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114209920"/>
+        <c:crossAx val="73382144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114209920"/>
+        <c:axId val="73382144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5816,14 +5816,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68533632"/>
+        <c:crossAx val="73380608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6612,8 +6611,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130280064"/>
-        <c:axId val="130294144"/>
+        <c:axId val="77494144"/>
+        <c:axId val="77495680"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10667,11 +10666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130353408"/>
-        <c:axId val="114422912"/>
+        <c:axId val="77503104"/>
+        <c:axId val="77501568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130280064"/>
+        <c:axId val="77494144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10680,12 +10679,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130294144"/>
+        <c:crossAx val="77495680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130294144"/>
+        <c:axId val="77495680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10696,12 +10695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130280064"/>
+        <c:crossAx val="77494144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114422912"/>
+        <c:axId val="77501568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2000"/>
@@ -10712,12 +10711,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130353408"/>
+        <c:crossAx val="77503104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130353408"/>
+        <c:axId val="77503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10726,13 +10725,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114422912"/>
+        <c:crossAx val="77501568"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11107,7 +11106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A38"/>
     </sheetView>
   </sheetViews>
@@ -11300,10 +11299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U220"/>
+  <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="O226" sqref="O226"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11321,7 +11320,7 @@
     <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>276</v>
       </c>
@@ -11357,8 +11356,16 @@
       <c r="U1">
         <v>-223</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W1">
+        <f>ABS(B1)</f>
+        <v>223</v>
+      </c>
+      <c r="X1">
+        <f>MAX(W1:W220)</f>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>277</v>
       </c>
@@ -11394,8 +11401,12 @@
       <c r="U2">
         <v>-1051</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <f t="shared" ref="W2:W65" si="2">ABS(B2)</f>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>278</v>
       </c>
@@ -11444,8 +11455,12 @@
       <c r="U3">
         <v>-1245</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>279</v>
       </c>
@@ -11493,8 +11508,12 @@
       <c r="U4">
         <v>-683</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>280</v>
       </c>
@@ -11542,8 +11561,12 @@
       <c r="U5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>281</v>
       </c>
@@ -11591,8 +11614,12 @@
       <c r="U6">
         <v>-174</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>282</v>
       </c>
@@ -11640,8 +11667,12 @@
       <c r="U7">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>283</v>
       </c>
@@ -11689,8 +11720,12 @@
       <c r="U8">
         <v>982</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>284</v>
       </c>
@@ -11738,8 +11773,12 @@
       <c r="U9">
         <v>960</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>285</v>
       </c>
@@ -11787,8 +11826,12 @@
       <c r="U10">
         <v>802</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>286</v>
       </c>
@@ -11836,8 +11879,12 @@
       <c r="U11">
         <v>559</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>287</v>
       </c>
@@ -11885,8 +11932,12 @@
       <c r="U12">
         <v>892</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>288</v>
       </c>
@@ -11937,8 +11988,12 @@
       <c r="U13">
         <v>1207</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>289</v>
       </c>
@@ -11986,8 +12041,12 @@
       <c r="U14">
         <v>294</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>290</v>
       </c>
@@ -12035,8 +12094,12 @@
       <c r="U15">
         <v>-561</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>291</v>
       </c>
@@ -12084,8 +12147,12 @@
       <c r="U16">
         <v>-1055</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>292</v>
       </c>
@@ -12136,8 +12203,12 @@
       <c r="U17">
         <v>-1221</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>293</v>
       </c>
@@ -12185,8 +12256,12 @@
       <c r="U18">
         <v>-1149</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>294</v>
       </c>
@@ -12234,8 +12309,12 @@
       <c r="U19">
         <v>-1206</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>295</v>
       </c>
@@ -12283,8 +12362,12 @@
       <c r="U20">
         <v>-985</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>296</v>
       </c>
@@ -12332,8 +12415,12 @@
       <c r="U21">
         <v>-113</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>297</v>
       </c>
@@ -12381,8 +12468,12 @@
       <c r="U22">
         <v>256</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>298</v>
       </c>
@@ -12430,8 +12521,12 @@
       <c r="U23">
         <v>693</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>299</v>
       </c>
@@ -12479,8 +12574,12 @@
       <c r="U24">
         <v>1074</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>300</v>
       </c>
@@ -12528,8 +12627,12 @@
       <c r="U25">
         <v>1136</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>301</v>
       </c>
@@ -12577,8 +12680,12 @@
       <c r="U26">
         <v>869</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>302</v>
       </c>
@@ -12626,8 +12733,12 @@
       <c r="U27">
         <v>1019</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>303</v>
       </c>
@@ -12678,8 +12789,12 @@
       <c r="U28">
         <v>1154</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>304</v>
       </c>
@@ -12715,8 +12830,12 @@
       <c r="U29">
         <v>812</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>305</v>
       </c>
@@ -12752,8 +12871,12 @@
       <c r="U30">
         <v>352</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>306</v>
       </c>
@@ -12789,8 +12912,12 @@
       <c r="U31">
         <v>-552</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>307</v>
       </c>
@@ -12826,8 +12953,12 @@
       <c r="U32">
         <v>-916</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>308</v>
       </c>
@@ -12863,8 +12994,12 @@
       <c r="U33">
         <v>-506</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>309</v>
       </c>
@@ -12900,8 +13035,12 @@
       <c r="U34">
         <v>-406</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>310</v>
       </c>
@@ -12937,8 +13076,12 @@
       <c r="U35">
         <v>-911</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>311</v>
       </c>
@@ -12977,8 +13120,12 @@
       <c r="U36">
         <v>-1255</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>312</v>
       </c>
@@ -13014,8 +13161,12 @@
       <c r="U37">
         <v>-822</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>313</v>
       </c>
@@ -13051,8 +13202,12 @@
       <c r="U38">
         <v>-535</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>314</v>
       </c>
@@ -13088,8 +13243,12 @@
       <c r="U39">
         <v>-79</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>315</v>
       </c>
@@ -13125,8 +13284,12 @@
       <c r="U40">
         <v>906</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>316</v>
       </c>
@@ -13162,8 +13325,12 @@
       <c r="U41">
         <v>1122</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>317</v>
       </c>
@@ -13199,8 +13366,12 @@
       <c r="U42">
         <v>907</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>318</v>
       </c>
@@ -13236,8 +13407,12 @@
       <c r="U43">
         <v>924</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>319</v>
       </c>
@@ -13276,8 +13451,12 @@
       <c r="U44">
         <v>1128</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>320</v>
       </c>
@@ -13313,8 +13492,12 @@
       <c r="U45">
         <v>1111</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>321</v>
       </c>
@@ -13350,8 +13533,12 @@
       <c r="U46">
         <v>1083</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>322</v>
       </c>
@@ -13387,8 +13574,12 @@
       <c r="U47">
         <v>604</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>323</v>
       </c>
@@ -13424,8 +13615,12 @@
       <c r="U48">
         <v>-623</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>324</v>
       </c>
@@ -13464,8 +13659,12 @@
       <c r="U49">
         <v>-1147</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>325</v>
       </c>
@@ -13501,8 +13700,12 @@
       <c r="U50">
         <v>-950</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>326</v>
       </c>
@@ -13538,8 +13741,12 @@
       <c r="U51">
         <v>-835</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>327</v>
       </c>
@@ -13575,8 +13782,12 @@
       <c r="U52">
         <v>-797</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>328</v>
       </c>
@@ -13612,8 +13823,12 @@
       <c r="U53">
         <v>-965</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>329</v>
       </c>
@@ -13649,8 +13864,12 @@
       <c r="U54">
         <v>-271</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>330</v>
       </c>
@@ -13686,8 +13905,12 @@
       <c r="U55">
         <v>-36</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>331</v>
       </c>
@@ -13723,8 +13946,12 @@
       <c r="U56">
         <v>235</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>332</v>
       </c>
@@ -13760,8 +13987,12 @@
       <c r="U57">
         <v>748</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>333</v>
       </c>
@@ -13797,8 +14028,12 @@
       <c r="U58">
         <v>304</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>334</v>
       </c>
@@ -13834,8 +14069,12 @@
       <c r="U59">
         <v>539</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>335</v>
       </c>
@@ -13874,8 +14113,12 @@
       <c r="U60">
         <v>1133</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>336</v>
       </c>
@@ -13911,8 +14154,12 @@
       <c r="U61">
         <v>925</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>337</v>
       </c>
@@ -13948,8 +14195,12 @@
       <c r="U62">
         <v>720</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>338</v>
       </c>
@@ -13985,8 +14236,12 @@
       <c r="U63">
         <v>308</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>339</v>
       </c>
@@ -14022,8 +14277,12 @@
       <c r="U64">
         <v>-250</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>340</v>
       </c>
@@ -14062,8 +14321,12 @@
       <c r="U65">
         <v>-378</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W65">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>341</v>
       </c>
@@ -14071,11 +14334,11 @@
         <v>-81</v>
       </c>
       <c r="C66" s="2" t="e">
-        <f t="shared" ref="C66:C129" si="2">VLOOKUP(B66,$M$4:$N$28,2,FALSE)</f>
+        <f t="shared" ref="C66:C129" si="3">VLOOKUP(B66,$M$4:$N$28,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E66" s="2" t="e">
-        <f t="shared" ref="E66:E129" si="3">VLOOKUP(B66,$M$4:$N$28,1,FALSE)</f>
+        <f t="shared" ref="E66:E129" si="4">VLOOKUP(B66,$M$4:$N$28,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O66" t="s">
@@ -14099,8 +14362,12 @@
       <c r="U66">
         <v>-81</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <f t="shared" ref="W66:W129" si="5">ABS(B66)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>342</v>
       </c>
@@ -14108,13 +14375,13 @@
         <v>87</v>
       </c>
       <c r="C67" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E67" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O67" t="s">
         <v>507</v>
       </c>
@@ -14136,8 +14403,12 @@
       <c r="U67">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W67">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>343</v>
       </c>
@@ -14145,13 +14416,13 @@
         <v>-387</v>
       </c>
       <c r="C68" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E68" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O68" t="s">
         <v>507</v>
       </c>
@@ -14173,8 +14444,12 @@
       <c r="U68">
         <v>-387</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>344</v>
       </c>
@@ -14182,13 +14457,13 @@
         <v>-387</v>
       </c>
       <c r="C69" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E69" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O69" t="s">
         <v>506</v>
       </c>
@@ -14210,8 +14485,12 @@
       <c r="U69">
         <v>-526</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W69">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>345</v>
       </c>
@@ -14219,13 +14498,13 @@
         <v>-526</v>
       </c>
       <c r="C70" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E70" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O70" t="s">
         <v>506</v>
       </c>
@@ -14247,8 +14526,12 @@
       <c r="U70">
         <v>-541</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <f t="shared" si="5"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>346</v>
       </c>
@@ -14256,13 +14539,13 @@
         <v>-541</v>
       </c>
       <c r="C71" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E71" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O71" t="s">
         <v>506</v>
       </c>
@@ -14284,8 +14567,12 @@
       <c r="U71">
         <v>-594</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <f t="shared" si="5"/>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>347</v>
       </c>
@@ -14293,14 +14580,14 @@
         <v>-594</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-594</v>
       </c>
       <c r="O72" t="s">
@@ -14324,8 +14611,12 @@
       <c r="U72">
         <v>-342</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W72">
+        <f t="shared" si="5"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>348</v>
       </c>
@@ -14333,13 +14624,13 @@
         <v>-342</v>
       </c>
       <c r="C73" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E73" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O73" t="s">
         <v>506</v>
       </c>
@@ -14361,8 +14652,12 @@
       <c r="U73">
         <v>-105</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>349</v>
       </c>
@@ -14370,13 +14665,13 @@
         <v>-105</v>
       </c>
       <c r="C74" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E74" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O74" t="s">
         <v>507</v>
       </c>
@@ -14398,8 +14693,12 @@
       <c r="U74">
         <v>-33</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W74">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>350</v>
       </c>
@@ -14407,13 +14706,13 @@
         <v>-33</v>
       </c>
       <c r="C75" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E75" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O75" t="s">
         <v>507</v>
       </c>
@@ -14435,8 +14734,12 @@
       <c r="U75">
         <v>63</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>351</v>
       </c>
@@ -14444,13 +14747,13 @@
         <v>63</v>
       </c>
       <c r="C76" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E76" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O76" t="s">
         <v>507</v>
       </c>
@@ -14472,8 +14775,12 @@
       <c r="U76">
         <v>359</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W76">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>352</v>
       </c>
@@ -14481,13 +14788,13 @@
         <v>359</v>
       </c>
       <c r="C77" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E77" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O77" t="s">
         <v>508</v>
       </c>
@@ -14509,8 +14816,12 @@
       <c r="U77">
         <v>330</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>353</v>
       </c>
@@ -14518,13 +14829,13 @@
         <v>330</v>
       </c>
       <c r="C78" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E78" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O78" t="s">
         <v>508</v>
       </c>
@@ -14546,8 +14857,12 @@
       <c r="U78">
         <v>359</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W78">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>354</v>
       </c>
@@ -14555,13 +14870,13 @@
         <v>359</v>
       </c>
       <c r="C79" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E79" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O79" t="s">
         <v>508</v>
       </c>
@@ -14583,8 +14898,12 @@
       <c r="U79">
         <v>622</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>355</v>
       </c>
@@ -14592,13 +14911,13 @@
         <v>622</v>
       </c>
       <c r="C80" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E80" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O80" t="s">
         <v>508</v>
       </c>
@@ -14620,8 +14939,12 @@
       <c r="U80">
         <v>660</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W80">
+        <f t="shared" si="5"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>356</v>
       </c>
@@ -14629,14 +14952,14 @@
         <v>660</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>263</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>660</v>
       </c>
       <c r="O81" t="s">
@@ -14660,8 +14983,12 @@
       <c r="U81">
         <v>506</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W81">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>357</v>
       </c>
@@ -14669,13 +14996,13 @@
         <v>506</v>
       </c>
       <c r="C82" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E82" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O82" t="s">
         <v>508</v>
       </c>
@@ -14697,8 +15024,12 @@
       <c r="U82">
         <v>191</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W82">
+        <f t="shared" si="5"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>358</v>
       </c>
@@ -14706,13 +15037,13 @@
         <v>191</v>
       </c>
       <c r="C83" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E83" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O83" t="s">
         <v>507</v>
       </c>
@@ -14734,8 +15065,12 @@
       <c r="U83">
         <v>-35</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W83">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>359</v>
       </c>
@@ -14743,13 +15078,13 @@
         <v>-35</v>
       </c>
       <c r="C84" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E84" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O84" t="s">
         <v>507</v>
       </c>
@@ -14771,8 +15106,12 @@
       <c r="U84">
         <v>-247</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W84">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>360</v>
       </c>
@@ -14780,13 +15119,13 @@
         <v>-247</v>
       </c>
       <c r="C85" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E85" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O85" t="s">
         <v>506</v>
       </c>
@@ -14808,8 +15147,12 @@
       <c r="U85">
         <v>-457</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>361</v>
       </c>
@@ -14817,13 +15160,13 @@
         <v>-247</v>
       </c>
       <c r="C86" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E86" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O86" t="s">
         <v>506</v>
       </c>
@@ -14845,8 +15188,12 @@
       <c r="U86">
         <v>-517</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W86">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>362</v>
       </c>
@@ -14854,13 +15201,13 @@
         <v>-457</v>
       </c>
       <c r="C87" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E87" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O87" t="s">
         <v>506</v>
       </c>
@@ -14882,8 +15229,12 @@
       <c r="U87">
         <v>-733</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <f t="shared" si="5"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>363</v>
       </c>
@@ -14891,13 +15242,13 @@
         <v>-517</v>
       </c>
       <c r="C88" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E88" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O88" t="s">
         <v>506</v>
       </c>
@@ -14919,8 +15270,12 @@
       <c r="U88">
         <v>-784</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <f t="shared" si="5"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>364</v>
       </c>
@@ -14928,13 +15283,13 @@
         <v>-733</v>
       </c>
       <c r="C89" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E89" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O89" t="s">
         <v>506</v>
       </c>
@@ -14956,8 +15311,12 @@
       <c r="U89">
         <v>-676</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W89">
+        <f t="shared" si="5"/>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>365</v>
       </c>
@@ -14965,14 +15324,14 @@
         <v>-784</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>271</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-784</v>
       </c>
       <c r="O90" t="s">
@@ -14996,8 +15355,12 @@
       <c r="U90">
         <v>-507</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W90">
+        <f t="shared" si="5"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>366</v>
       </c>
@@ -15005,13 +15368,13 @@
         <v>-676</v>
       </c>
       <c r="C91" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E91" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O91" t="s">
         <v>506</v>
       </c>
@@ -15033,8 +15396,12 @@
       <c r="U91">
         <v>-165</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W91">
+        <f t="shared" si="5"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>367</v>
       </c>
@@ -15042,13 +15409,13 @@
         <v>-507</v>
       </c>
       <c r="C92" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E92" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O92" t="s">
         <v>507</v>
       </c>
@@ -15070,8 +15437,12 @@
       <c r="U92">
         <v>132</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W92">
+        <f t="shared" si="5"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>368</v>
       </c>
@@ -15079,13 +15450,13 @@
         <v>-165</v>
       </c>
       <c r="C93" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E93" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O93" t="s">
         <v>507</v>
       </c>
@@ -15107,8 +15478,12 @@
       <c r="U93">
         <v>342</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W93">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>369</v>
       </c>
@@ -15116,13 +15491,13 @@
         <v>132</v>
       </c>
       <c r="C94" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E94" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O94" t="s">
         <v>508</v>
       </c>
@@ -15144,8 +15519,12 @@
       <c r="U94">
         <v>240</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W94">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>370</v>
       </c>
@@ -15153,13 +15532,13 @@
         <v>342</v>
       </c>
       <c r="C95" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E95" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O95" t="s">
         <v>508</v>
       </c>
@@ -15181,8 +15560,12 @@
       <c r="U95">
         <v>542</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W95">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>371</v>
       </c>
@@ -15190,13 +15573,13 @@
         <v>240</v>
       </c>
       <c r="C96" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E96" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E96" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O96" t="s">
         <v>508</v>
       </c>
@@ -15218,8 +15601,12 @@
       <c r="U96">
         <v>800</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W96">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>372</v>
       </c>
@@ -15227,13 +15614,13 @@
         <v>542</v>
       </c>
       <c r="C97" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E97" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E97" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O97" t="s">
         <v>508</v>
       </c>
@@ -15255,8 +15642,12 @@
       <c r="U97">
         <v>567</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W97">
+        <f t="shared" si="5"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>373</v>
       </c>
@@ -15264,14 +15655,14 @@
         <v>800</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>279</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="O98" t="s">
@@ -15295,8 +15686,12 @@
       <c r="U98">
         <v>391</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>374</v>
       </c>
@@ -15304,13 +15699,13 @@
         <v>567</v>
       </c>
       <c r="C99" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E99" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E99" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O99" t="s">
         <v>508</v>
       </c>
@@ -15332,8 +15727,12 @@
       <c r="U99">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <f t="shared" si="5"/>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>375</v>
       </c>
@@ -15341,13 +15740,13 @@
         <v>391</v>
       </c>
       <c r="C100" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E100" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E100" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O100" t="s">
         <v>507</v>
       </c>
@@ -15369,8 +15768,12 @@
       <c r="U100">
         <v>-337</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <f t="shared" si="5"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>376</v>
       </c>
@@ -15378,13 +15781,13 @@
         <v>15</v>
       </c>
       <c r="C101" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E101" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E101" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O101" t="s">
         <v>506</v>
       </c>
@@ -15406,8 +15809,12 @@
       <c r="U101">
         <v>-245</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>377</v>
       </c>
@@ -15415,13 +15822,13 @@
         <v>-337</v>
       </c>
       <c r="C102" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E102" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E102" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O102" t="s">
         <v>506</v>
       </c>
@@ -15443,8 +15850,12 @@
       <c r="U102">
         <v>-257</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>378</v>
       </c>
@@ -15452,13 +15863,13 @@
         <v>-337</v>
       </c>
       <c r="C103" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E103" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E103" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O103" t="s">
         <v>506</v>
       </c>
@@ -15480,8 +15891,12 @@
       <c r="U103">
         <v>-687</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>379</v>
       </c>
@@ -15489,13 +15904,13 @@
         <v>-245</v>
       </c>
       <c r="C104" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E104" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E104" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O104" t="s">
         <v>506</v>
       </c>
@@ -15517,8 +15932,12 @@
       <c r="U104">
         <v>-932</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>380</v>
       </c>
@@ -15526,13 +15945,13 @@
         <v>-257</v>
       </c>
       <c r="C105" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E105" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E105" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O105" t="s">
         <v>506</v>
       </c>
@@ -15554,8 +15973,12 @@
       <c r="U105">
         <v>-765</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <f t="shared" si="5"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>381</v>
       </c>
@@ -15563,13 +15986,13 @@
         <v>-687</v>
       </c>
       <c r="C106" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E106" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O106" t="s">
         <v>506</v>
       </c>
@@ -15591,8 +16014,12 @@
       <c r="U106">
         <v>-428</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <f t="shared" si="5"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>382</v>
       </c>
@@ -15600,14 +16027,14 @@
         <v>-932</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>287</v>
       </c>
       <c r="D107">
         <v>3</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-932</v>
       </c>
       <c r="O107" t="s">
@@ -15631,8 +16058,12 @@
       <c r="U107">
         <v>-217</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <f t="shared" si="5"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>383</v>
       </c>
@@ -15640,13 +16071,13 @@
         <v>-765</v>
       </c>
       <c r="C108" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E108" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E108" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O108" t="s">
         <v>506</v>
       </c>
@@ -15668,8 +16099,12 @@
       <c r="U108">
         <v>29</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <f t="shared" si="5"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>384</v>
       </c>
@@ -15677,13 +16112,13 @@
         <v>-428</v>
       </c>
       <c r="C109" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E109" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E109" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O109" t="s">
         <v>507</v>
       </c>
@@ -15705,8 +16140,12 @@
       <c r="U109">
         <v>48</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <f t="shared" si="5"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>385</v>
       </c>
@@ -15714,13 +16153,13 @@
         <v>-217</v>
       </c>
       <c r="C110" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E110" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E110" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O110" t="s">
         <v>507</v>
       </c>
@@ -15742,8 +16181,12 @@
       <c r="U110">
         <v>-89</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W110">
+        <f t="shared" si="5"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>386</v>
       </c>
@@ -15751,13 +16194,13 @@
         <v>29</v>
       </c>
       <c r="C111" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E111" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O111" t="s">
         <v>507</v>
       </c>
@@ -15779,8 +16222,12 @@
       <c r="U111">
         <v>177</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>387</v>
       </c>
@@ -15788,13 +16235,13 @@
         <v>48</v>
       </c>
       <c r="C112" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E112" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E112" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O112" t="s">
         <v>507</v>
       </c>
@@ -15816,8 +16263,12 @@
       <c r="U112">
         <v>439</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W112">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>388</v>
       </c>
@@ -15825,13 +16276,13 @@
         <v>-89</v>
       </c>
       <c r="C113" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E113" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E113" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O113" t="s">
         <v>508</v>
       </c>
@@ -15853,8 +16304,12 @@
       <c r="U113">
         <v>454</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>389</v>
       </c>
@@ -15862,13 +16317,13 @@
         <v>177</v>
       </c>
       <c r="C114" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E114" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E114" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O114" t="s">
         <v>508</v>
       </c>
@@ -15890,8 +16345,12 @@
       <c r="U114">
         <v>350</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W114">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>390</v>
       </c>
@@ -15899,13 +16358,13 @@
         <v>439</v>
       </c>
       <c r="C115" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E115" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E115" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O115" t="s">
         <v>508</v>
       </c>
@@ -15927,8 +16386,12 @@
       <c r="U115">
         <v>247</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <f t="shared" si="5"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>391</v>
       </c>
@@ -15936,14 +16399,14 @@
         <v>454</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>296</v>
       </c>
       <c r="D116">
         <v>3</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>454</v>
       </c>
       <c r="O116" t="s">
@@ -15967,8 +16430,12 @@
       <c r="U116">
         <v>158</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W116">
+        <f t="shared" si="5"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>392</v>
       </c>
@@ -15976,13 +16443,13 @@
         <v>350</v>
       </c>
       <c r="C117" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E117" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E117" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O117" t="s">
         <v>507</v>
       </c>
@@ -16004,8 +16471,12 @@
       <c r="U117">
         <v>55</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>393</v>
       </c>
@@ -16013,13 +16484,13 @@
         <v>247</v>
       </c>
       <c r="C118" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E118" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E118" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O118" t="s">
         <v>507</v>
       </c>
@@ -16041,8 +16512,12 @@
       <c r="U118">
         <v>-194</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>394</v>
       </c>
@@ -16050,13 +16525,13 @@
         <v>158</v>
       </c>
       <c r="C119" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E119" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E119" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O119" t="s">
         <v>507</v>
       </c>
@@ -16078,8 +16553,12 @@
       <c r="U119">
         <v>-409</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W119">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>395</v>
       </c>
@@ -16087,13 +16566,13 @@
         <v>55</v>
       </c>
       <c r="C120" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E120" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E120" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O120" t="s">
         <v>506</v>
       </c>
@@ -16115,8 +16594,12 @@
       <c r="U120">
         <v>-423</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>396</v>
       </c>
@@ -16124,13 +16607,13 @@
         <v>-194</v>
       </c>
       <c r="C121" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E121" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O121" t="s">
         <v>506</v>
       </c>
@@ -16152,8 +16635,12 @@
       <c r="U121">
         <v>-532</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W121">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>397</v>
       </c>
@@ -16161,13 +16648,13 @@
         <v>-409</v>
       </c>
       <c r="C122" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E122" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O122" t="s">
         <v>506</v>
       </c>
@@ -16189,8 +16676,12 @@
       <c r="U122">
         <v>-587</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <f t="shared" si="5"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>398</v>
       </c>
@@ -16198,13 +16689,13 @@
         <v>-409</v>
       </c>
       <c r="C123" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E123" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O123" t="s">
         <v>506</v>
       </c>
@@ -16226,8 +16717,12 @@
       <c r="U123">
         <v>-556</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W123">
+        <f t="shared" si="5"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>399</v>
       </c>
@@ -16235,13 +16730,13 @@
         <v>-423</v>
       </c>
       <c r="C124" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E124" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O124" t="s">
         <v>506</v>
       </c>
@@ -16263,8 +16758,12 @@
       <c r="U124">
         <v>-457</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <f t="shared" si="5"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>400</v>
       </c>
@@ -16272,13 +16771,13 @@
         <v>-532</v>
       </c>
       <c r="C125" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E125" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O125" t="s">
         <v>506</v>
       </c>
@@ -16300,8 +16799,12 @@
       <c r="U125">
         <v>-161</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W125">
+        <f t="shared" si="5"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>401</v>
       </c>
@@ -16309,14 +16812,14 @@
         <v>-587</v>
       </c>
       <c r="C126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>305</v>
       </c>
       <c r="D126">
         <v>4</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-587</v>
       </c>
       <c r="O126" t="s">
@@ -16340,8 +16843,12 @@
       <c r="U126">
         <v>-4</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <f t="shared" si="5"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>402</v>
       </c>
@@ -16349,13 +16856,13 @@
         <v>-556</v>
       </c>
       <c r="C127" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E127" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E127" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O127" t="s">
         <v>507</v>
       </c>
@@ -16377,8 +16884,12 @@
       <c r="U127">
         <v>90</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <f t="shared" si="5"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>403</v>
       </c>
@@ -16386,13 +16897,13 @@
         <v>-457</v>
       </c>
       <c r="C128" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E128" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E128" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O128" t="s">
         <v>507</v>
       </c>
@@ -16414,8 +16925,12 @@
       <c r="U128">
         <v>261</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <f t="shared" si="5"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>404</v>
       </c>
@@ -16423,13 +16938,13 @@
         <v>-161</v>
       </c>
       <c r="C129" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E129" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
+      <c r="E129" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
       <c r="O129" t="s">
         <v>508</v>
       </c>
@@ -16451,8 +16966,12 @@
       <c r="U129">
         <v>406</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>405</v>
       </c>
@@ -16460,11 +16979,11 @@
         <v>-4</v>
       </c>
       <c r="C130" s="2" t="e">
-        <f t="shared" ref="C130:C193" si="4">VLOOKUP(B130,$M$4:$N$28,2,FALSE)</f>
+        <f t="shared" ref="C130:C193" si="6">VLOOKUP(B130,$M$4:$N$28,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E130" s="2" t="e">
-        <f t="shared" ref="E130:E193" si="5">VLOOKUP(B130,$M$4:$N$28,1,FALSE)</f>
+        <f t="shared" ref="E130:E193" si="7">VLOOKUP(B130,$M$4:$N$28,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O130" t="s">
@@ -16488,8 +17007,12 @@
       <c r="U130">
         <v>468</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <f t="shared" ref="W130:W193" si="8">ABS(B130)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>406</v>
       </c>
@@ -16497,11 +17020,11 @@
         <v>90</v>
       </c>
       <c r="C131" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E131" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O131" t="s">
@@ -16525,8 +17048,12 @@
       <c r="U131">
         <v>428</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W131">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>407</v>
       </c>
@@ -16534,11 +17061,11 @@
         <v>261</v>
       </c>
       <c r="C132" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E132" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O132" t="s">
@@ -16562,8 +17089,12 @@
       <c r="U132">
         <v>343</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <f t="shared" si="8"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>408</v>
       </c>
@@ -16571,11 +17102,11 @@
         <v>406</v>
       </c>
       <c r="C133" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E133" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O133" t="s">
@@ -16599,8 +17130,12 @@
       <c r="U133">
         <v>154</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W133">
+        <f t="shared" si="8"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>409</v>
       </c>
@@ -16608,14 +17143,14 @@
         <v>468</v>
       </c>
       <c r="C134" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>313</v>
       </c>
       <c r="D134">
         <v>4</v>
       </c>
       <c r="E134" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>468</v>
       </c>
       <c r="O134" t="s">
@@ -16639,8 +17174,12 @@
       <c r="U134">
         <v>-20</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <f t="shared" si="8"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>410</v>
       </c>
@@ -16648,11 +17187,11 @@
         <v>428</v>
       </c>
       <c r="C135" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E135" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O135" t="s">
@@ -16676,8 +17215,12 @@
       <c r="U135">
         <v>-123</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W135">
+        <f t="shared" si="8"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>411</v>
       </c>
@@ -16685,11 +17228,11 @@
         <v>343</v>
       </c>
       <c r="C136" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E136" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O136" t="s">
@@ -16713,8 +17256,12 @@
       <c r="U136">
         <v>-269</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <f t="shared" si="8"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>412</v>
       </c>
@@ -16722,11 +17269,11 @@
         <v>154</v>
       </c>
       <c r="C137" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E137" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O137" t="s">
@@ -16750,8 +17297,12 @@
       <c r="U137">
         <v>-393</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W137">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>413</v>
       </c>
@@ -16759,11 +17310,11 @@
         <v>-20</v>
       </c>
       <c r="C138" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E138" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O138" t="s">
@@ -16787,8 +17338,12 @@
       <c r="U138">
         <v>-452</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>414</v>
       </c>
@@ -16796,11 +17351,11 @@
         <v>-123</v>
       </c>
       <c r="C139" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E139" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O139" t="s">
@@ -16824,8 +17379,12 @@
       <c r="U139">
         <v>-504</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W139">
+        <f t="shared" si="8"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>415</v>
       </c>
@@ -16833,11 +17392,11 @@
         <v>-269</v>
       </c>
       <c r="C140" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E140" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O140" t="s">
@@ -16861,8 +17420,12 @@
       <c r="U140">
         <v>-414</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <f t="shared" si="8"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>416</v>
       </c>
@@ -16870,11 +17433,11 @@
         <v>-269</v>
       </c>
       <c r="C141" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E141" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O141" t="s">
@@ -16898,8 +17461,12 @@
       <c r="U141">
         <v>-206</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <f t="shared" si="8"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>417</v>
       </c>
@@ -16907,11 +17474,11 @@
         <v>-393</v>
       </c>
       <c r="C142" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E142" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O142" t="s">
@@ -16935,8 +17502,12 @@
       <c r="U142">
         <v>-9</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <f t="shared" si="8"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>418</v>
       </c>
@@ -16944,11 +17515,11 @@
         <v>-452</v>
       </c>
       <c r="C143" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E143" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O143" t="s">
@@ -16972,8 +17543,12 @@
       <c r="U143">
         <v>80</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <f t="shared" si="8"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>419</v>
       </c>
@@ -16981,14 +17556,14 @@
         <v>-504</v>
       </c>
       <c r="C144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>322</v>
       </c>
       <c r="D144">
         <v>5</v>
       </c>
       <c r="E144" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-504</v>
       </c>
       <c r="O144" t="s">
@@ -17012,8 +17587,12 @@
       <c r="U144">
         <v>126</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <f t="shared" si="8"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>420</v>
       </c>
@@ -17021,11 +17600,11 @@
         <v>-414</v>
       </c>
       <c r="C145" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E145" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O145" t="s">
@@ -17049,8 +17628,12 @@
       <c r="U145">
         <v>250</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <f t="shared" si="8"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>421</v>
       </c>
@@ -17058,11 +17641,11 @@
         <v>-206</v>
       </c>
       <c r="C146" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E146" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O146" t="s">
@@ -17086,8 +17669,12 @@
       <c r="U146">
         <v>333</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W146">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>422</v>
       </c>
@@ -17095,11 +17682,11 @@
         <v>-9</v>
       </c>
       <c r="C147" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E147" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O147" t="s">
@@ -17123,8 +17710,12 @@
       <c r="U147">
         <v>411</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>423</v>
       </c>
@@ -17132,11 +17723,11 @@
         <v>80</v>
       </c>
       <c r="C148" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E148" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O148" t="s">
@@ -17160,8 +17751,12 @@
       <c r="U148">
         <v>314</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W148">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>424</v>
       </c>
@@ -17169,11 +17764,11 @@
         <v>126</v>
       </c>
       <c r="C149" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E149" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O149" t="s">
@@ -17197,8 +17792,12 @@
       <c r="U149">
         <v>197</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>425</v>
       </c>
@@ -17206,11 +17805,11 @@
         <v>250</v>
       </c>
       <c r="C150" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E150" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O150" t="s">
@@ -17234,8 +17833,12 @@
       <c r="U150">
         <v>164</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W150">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>426</v>
       </c>
@@ -17243,11 +17846,11 @@
         <v>333</v>
       </c>
       <c r="C151" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E151" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O151" t="s">
@@ -17271,8 +17874,12 @@
       <c r="U151">
         <v>109</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W151">
+        <f t="shared" si="8"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>427</v>
       </c>
@@ -17280,14 +17887,14 @@
         <v>411</v>
       </c>
       <c r="C152" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="D152">
         <v>5</v>
       </c>
       <c r="E152" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>411</v>
       </c>
       <c r="O152" t="s">
@@ -17311,8 +17918,12 @@
       <c r="U152">
         <v>-53</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W152">
+        <f t="shared" si="8"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>428</v>
       </c>
@@ -17320,11 +17931,11 @@
         <v>314</v>
       </c>
       <c r="C153" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E153" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O153" t="s">
@@ -17348,8 +17959,12 @@
       <c r="U153">
         <v>-191</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W153">
+        <f t="shared" si="8"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>429</v>
       </c>
@@ -17357,11 +17972,11 @@
         <v>197</v>
       </c>
       <c r="C154" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E154" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O154" t="s">
@@ -17385,8 +18000,12 @@
       <c r="U154">
         <v>-166</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W154">
+        <f t="shared" si="8"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>430</v>
       </c>
@@ -17394,11 +18013,11 @@
         <v>164</v>
       </c>
       <c r="C155" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E155" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O155" t="s">
@@ -17422,8 +18041,12 @@
       <c r="U155">
         <v>-213</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W155">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>431</v>
       </c>
@@ -17431,11 +18054,11 @@
         <v>109</v>
       </c>
       <c r="C156" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E156" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O156" t="s">
@@ -17459,8 +18082,12 @@
       <c r="U156">
         <v>-258</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W156">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>432</v>
       </c>
@@ -17468,11 +18095,11 @@
         <v>-53</v>
       </c>
       <c r="C157" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E157" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O157" t="s">
@@ -17496,8 +18123,12 @@
       <c r="U157">
         <v>-204</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W157">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>433</v>
       </c>
@@ -17505,11 +18136,11 @@
         <v>-191</v>
       </c>
       <c r="C158" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E158" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O158" t="s">
@@ -17533,8 +18164,12 @@
       <c r="U158">
         <v>-146</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W158">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>434</v>
       </c>
@@ -17542,11 +18177,11 @@
         <v>-166</v>
       </c>
       <c r="C159" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E159" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O159" t="s">
@@ -17570,8 +18205,12 @@
       <c r="U159">
         <v>-15</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W159">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>435</v>
       </c>
@@ -17579,11 +18218,11 @@
         <v>-213</v>
       </c>
       <c r="C160" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E160" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O160" t="s">
@@ -17607,8 +18246,12 @@
       <c r="U160">
         <v>62</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W160">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>436</v>
       </c>
@@ -17616,11 +18259,11 @@
         <v>-213</v>
       </c>
       <c r="C161" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E161" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O161" t="s">
@@ -17644,8 +18287,12 @@
       <c r="U161">
         <v>123</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W161">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>437</v>
       </c>
@@ -17653,14 +18300,14 @@
         <v>-258</v>
       </c>
       <c r="C162" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>339</v>
       </c>
       <c r="D162">
         <v>6</v>
       </c>
       <c r="E162" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-258</v>
       </c>
       <c r="O162" t="s">
@@ -17684,8 +18331,12 @@
       <c r="U162">
         <v>212</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W162">
+        <f t="shared" si="8"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>438</v>
       </c>
@@ -17693,11 +18344,11 @@
         <v>-204</v>
       </c>
       <c r="C163" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E163" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O163" t="s">
@@ -17721,8 +18372,12 @@
       <c r="U163">
         <v>262</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W163">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>439</v>
       </c>
@@ -17730,11 +18385,11 @@
         <v>-146</v>
       </c>
       <c r="C164" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E164" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O164" t="s">
@@ -17758,8 +18413,12 @@
       <c r="U164">
         <v>311</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W164">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>440</v>
       </c>
@@ -17767,11 +18426,11 @@
         <v>-15</v>
       </c>
       <c r="C165" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E165" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O165" t="s">
@@ -17795,8 +18454,12 @@
       <c r="U165">
         <v>302</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W165">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>441</v>
       </c>
@@ -17804,11 +18467,11 @@
         <v>62</v>
       </c>
       <c r="C166" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E166" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O166" t="s">
@@ -17832,8 +18495,12 @@
       <c r="U166">
         <v>236</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W166">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>442</v>
       </c>
@@ -17841,11 +18508,11 @@
         <v>123</v>
       </c>
       <c r="C167" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E167" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O167" t="s">
@@ -17869,8 +18536,12 @@
       <c r="U167">
         <v>174</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W167">
+        <f t="shared" si="8"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>443</v>
       </c>
@@ -17878,11 +18549,11 @@
         <v>212</v>
       </c>
       <c r="C168" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E168" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O168" t="s">
@@ -17906,8 +18577,12 @@
       <c r="U168">
         <v>137</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W168">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>444</v>
       </c>
@@ -17915,11 +18590,11 @@
         <v>262</v>
       </c>
       <c r="C169" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E169" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O169" t="s">
@@ -17943,8 +18618,12 @@
       <c r="U169">
         <v>66</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W169">
+        <f t="shared" si="8"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>445</v>
       </c>
@@ -17952,14 +18631,14 @@
         <v>311</v>
       </c>
       <c r="C170" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>347</v>
       </c>
       <c r="D170">
         <v>6</v>
       </c>
       <c r="E170" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>311</v>
       </c>
       <c r="O170" t="s">
@@ -17983,8 +18662,12 @@
       <c r="U170">
         <v>-42</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W170">
+        <f t="shared" si="8"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>446</v>
       </c>
@@ -17992,11 +18675,11 @@
         <v>302</v>
       </c>
       <c r="C171" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E171" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O171" t="s">
@@ -18020,8 +18703,12 @@
       <c r="U171">
         <v>-73</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W171">
+        <f t="shared" si="8"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>447</v>
       </c>
@@ -18029,11 +18716,11 @@
         <v>236</v>
       </c>
       <c r="C172" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E172" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O172" t="s">
@@ -18057,8 +18744,12 @@
       <c r="U172">
         <v>-116</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W172">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>448</v>
       </c>
@@ -18066,11 +18757,11 @@
         <v>174</v>
       </c>
       <c r="C173" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E173" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O173" t="s">
@@ -18094,8 +18785,12 @@
       <c r="U173">
         <v>-164</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W173">
+        <f t="shared" si="8"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>449</v>
       </c>
@@ -18103,11 +18798,11 @@
         <v>137</v>
       </c>
       <c r="C174" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E174" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O174" t="s">
@@ -18131,8 +18826,12 @@
       <c r="U174">
         <v>-95</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W174">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>450</v>
       </c>
@@ -18140,11 +18839,11 @@
         <v>66</v>
       </c>
       <c r="C175" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E175" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O175" t="s">
@@ -18168,8 +18867,12 @@
       <c r="U175">
         <v>-52</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W175">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>451</v>
       </c>
@@ -18177,11 +18880,11 @@
         <v>-42</v>
       </c>
       <c r="C176" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E176" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O176" t="s">
@@ -18205,8 +18908,12 @@
       <c r="U176">
         <v>-40</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W176">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>452</v>
       </c>
@@ -18214,11 +18921,11 @@
         <v>-73</v>
       </c>
       <c r="C177" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E177" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O177" t="s">
@@ -18242,8 +18949,12 @@
       <c r="U177">
         <v>41</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W177">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>453</v>
       </c>
@@ -18251,11 +18962,11 @@
         <v>-116</v>
       </c>
       <c r="C178" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E178" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O178" t="s">
@@ -18279,8 +18990,12 @@
       <c r="U178">
         <v>143</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W178">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>454</v>
       </c>
@@ -18288,11 +19003,11 @@
         <v>-164</v>
       </c>
       <c r="C179" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E179" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O179" t="s">
@@ -18316,8 +19031,12 @@
       <c r="U179">
         <v>194</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W179">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>455</v>
       </c>
@@ -18325,11 +19044,11 @@
         <v>-95</v>
       </c>
       <c r="C180" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E180" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O180" t="s">
@@ -18353,8 +19072,12 @@
       <c r="U180">
         <v>224</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W180">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>456</v>
       </c>
@@ -18362,11 +19085,11 @@
         <v>-52</v>
       </c>
       <c r="C181" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E181" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O181" t="s">
@@ -18390,8 +19113,12 @@
       <c r="U181">
         <v>291</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W181">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>457</v>
       </c>
@@ -18399,11 +19126,11 @@
         <v>-40</v>
       </c>
       <c r="C182" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E182" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O182" t="s">
@@ -18427,8 +19154,12 @@
       <c r="U182">
         <v>270</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W182">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>458</v>
       </c>
@@ -18436,11 +19167,11 @@
         <v>41</v>
       </c>
       <c r="C183" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E183" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O183" t="s">
@@ -18464,8 +19195,12 @@
       <c r="U183">
         <v>212</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W183">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>459</v>
       </c>
@@ -18473,11 +19208,11 @@
         <v>143</v>
       </c>
       <c r="C184" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E184" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O184" t="s">
@@ -18501,8 +19236,12 @@
       <c r="U184">
         <v>203</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W184">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>460</v>
       </c>
@@ -18510,11 +19249,11 @@
         <v>194</v>
       </c>
       <c r="C185" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E185" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O185" t="s">
@@ -18538,8 +19277,12 @@
       <c r="U185">
         <v>135</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W185">
+        <f t="shared" si="8"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>461</v>
       </c>
@@ -18547,11 +19290,11 @@
         <v>224</v>
       </c>
       <c r="C186" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E186" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O186" t="s">
@@ -18575,8 +19318,12 @@
       <c r="U186">
         <v>62</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W186">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>462</v>
       </c>
@@ -18584,14 +19331,14 @@
         <v>291</v>
       </c>
       <c r="C187" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="D187">
         <v>6</v>
       </c>
       <c r="E187" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>291</v>
       </c>
       <c r="O187" t="s">
@@ -18615,8 +19362,12 @@
       <c r="U187">
         <v>37</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W187">
+        <f t="shared" si="8"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>463</v>
       </c>
@@ -18624,11 +19375,11 @@
         <v>270</v>
       </c>
       <c r="C188" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E188" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O188" t="s">
@@ -18652,8 +19403,12 @@
       <c r="U188">
         <v>-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W188">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>464</v>
       </c>
@@ -18661,11 +19416,11 @@
         <v>212</v>
       </c>
       <c r="C189" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E189" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O189" t="s">
@@ -18689,8 +19444,12 @@
       <c r="U189">
         <v>-70</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W189">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>465</v>
       </c>
@@ -18698,11 +19457,11 @@
         <v>203</v>
       </c>
       <c r="C190" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E190" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O190" t="s">
@@ -18726,8 +19485,12 @@
       <c r="U190">
         <v>-70</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W190">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>466</v>
       </c>
@@ -18735,11 +19498,11 @@
         <v>135</v>
       </c>
       <c r="C191" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E191" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O191" t="s">
@@ -18763,8 +19526,12 @@
       <c r="U191">
         <v>-51</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W191">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>467</v>
       </c>
@@ -18772,11 +19539,11 @@
         <v>62</v>
       </c>
       <c r="C192" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E192" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O192" t="s">
@@ -18800,8 +19567,12 @@
       <c r="U192">
         <v>-60</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W192">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>468</v>
       </c>
@@ -18809,11 +19580,11 @@
         <v>37</v>
       </c>
       <c r="C193" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E193" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="O193" t="s">
@@ -18837,8 +19608,12 @@
       <c r="U193">
         <v>-27</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W193">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>469</v>
       </c>
@@ -18846,11 +19621,11 @@
         <v>-2</v>
       </c>
       <c r="C194" s="2" t="e">
-        <f t="shared" ref="C194:C220" si="6">VLOOKUP(B194,$M$4:$N$28,2,FALSE)</f>
+        <f t="shared" ref="C194:C220" si="9">VLOOKUP(B194,$M$4:$N$28,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E194" s="2" t="e">
-        <f t="shared" ref="E194:E220" si="7">VLOOKUP(B194,$M$4:$N$28,1,FALSE)</f>
+        <f t="shared" ref="E194:E220" si="10">VLOOKUP(B194,$M$4:$N$28,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O194" t="s">
@@ -18874,8 +19649,12 @@
       <c r="U194">
         <v>38</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W194">
+        <f t="shared" ref="W194:W220" si="11">ABS(B194)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>470</v>
       </c>
@@ -18883,11 +19662,11 @@
         <v>-70</v>
       </c>
       <c r="C195" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E195" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O195" t="s">
@@ -18911,8 +19690,12 @@
       <c r="U195">
         <v>67</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W195">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>471</v>
       </c>
@@ -18920,11 +19703,11 @@
         <v>-70</v>
       </c>
       <c r="C196" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E196" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O196" t="s">
@@ -18948,8 +19731,12 @@
       <c r="U196">
         <v>94</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W196">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>472</v>
       </c>
@@ -18957,11 +19744,11 @@
         <v>-51</v>
       </c>
       <c r="C197" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E197" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O197" t="s">
@@ -18985,8 +19772,12 @@
       <c r="U197">
         <v>131</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W197">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>473</v>
       </c>
@@ -18994,11 +19785,11 @@
         <v>-60</v>
       </c>
       <c r="C198" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E198" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O198" t="s">
@@ -19022,8 +19813,12 @@
       <c r="U198">
         <v>150</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W198">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>474</v>
       </c>
@@ -19031,11 +19826,11 @@
         <v>-27</v>
       </c>
       <c r="C199" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E199" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O199" t="s">
@@ -19059,8 +19854,12 @@
       <c r="U199">
         <v>156</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W199">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>475</v>
       </c>
@@ -19068,11 +19867,11 @@
         <v>38</v>
       </c>
       <c r="C200" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E200" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O200" t="s">
@@ -19096,8 +19895,12 @@
       <c r="U200">
         <v>194</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W200">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>476</v>
       </c>
@@ -19105,11 +19908,11 @@
         <v>67</v>
       </c>
       <c r="C201" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E201" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O201" t="s">
@@ -19133,8 +19936,12 @@
       <c r="U201">
         <v>172</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W201">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>477</v>
       </c>
@@ -19142,11 +19949,11 @@
         <v>94</v>
       </c>
       <c r="C202" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E202" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O202" t="s">
@@ -19170,8 +19977,12 @@
       <c r="U202">
         <v>119</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W202">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>478</v>
       </c>
@@ -19179,11 +19990,11 @@
         <v>131</v>
       </c>
       <c r="C203" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E203" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O203" t="s">
@@ -19207,8 +20018,12 @@
       <c r="U203">
         <v>102</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W203">
+        <f t="shared" si="11"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>479</v>
       </c>
@@ -19216,11 +20031,11 @@
         <v>150</v>
       </c>
       <c r="C204" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E204" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O204" t="s">
@@ -19244,8 +20059,12 @@
       <c r="U204">
         <v>61</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W204">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>480</v>
       </c>
@@ -19253,11 +20072,11 @@
         <v>156</v>
       </c>
       <c r="C205" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E205" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O205" t="s">
@@ -19281,8 +20100,12 @@
       <c r="U205">
         <v>-9</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W205">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>481</v>
       </c>
@@ -19290,11 +20113,11 @@
         <v>194</v>
       </c>
       <c r="C206" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E206" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O206" t="s">
@@ -19318,8 +20141,12 @@
       <c r="U206">
         <v>-44</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W206">
+        <f t="shared" si="11"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>482</v>
       </c>
@@ -19327,11 +20154,11 @@
         <v>172</v>
       </c>
       <c r="C207" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E207" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O207" t="s">
@@ -19355,8 +20182,12 @@
       <c r="U207">
         <v>-62</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W207">
+        <f t="shared" si="11"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>483</v>
       </c>
@@ -19364,11 +20195,11 @@
         <v>119</v>
       </c>
       <c r="C208" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E208" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O208" t="s">
@@ -19392,8 +20223,12 @@
       <c r="U208">
         <v>-82</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W208">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>484</v>
       </c>
@@ -19401,11 +20236,11 @@
         <v>102</v>
       </c>
       <c r="C209" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E209" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O209" t="s">
@@ -19429,8 +20264,12 @@
       <c r="U209">
         <v>-102</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W209">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>485</v>
       </c>
@@ -19438,11 +20277,11 @@
         <v>61</v>
       </c>
       <c r="C210" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E210" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O210" t="s">
@@ -19466,8 +20305,12 @@
       <c r="U210">
         <v>-98</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W210">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>486</v>
       </c>
@@ -19475,11 +20318,11 @@
         <v>-9</v>
       </c>
       <c r="C211" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E211" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O211" t="s">
@@ -19503,8 +20346,12 @@
       <c r="U211">
         <v>-54</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W211">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>487</v>
       </c>
@@ -19512,11 +20359,11 @@
         <v>-44</v>
       </c>
       <c r="C212" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E212" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O212" t="s">
@@ -19540,8 +20387,12 @@
       <c r="U212">
         <v>-35</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W212">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>488</v>
       </c>
@@ -19549,11 +20400,11 @@
         <v>-62</v>
       </c>
       <c r="C213" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E213" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O213" t="s">
@@ -19577,8 +20428,12 @@
       <c r="U213">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W213">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>489</v>
       </c>
@@ -19586,11 +20441,11 @@
         <v>-82</v>
       </c>
       <c r="C214" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E214" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O214" t="s">
@@ -19614,8 +20469,12 @@
       <c r="U214">
         <v>82</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W214">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>490</v>
       </c>
@@ -19623,11 +20482,11 @@
         <v>-102</v>
       </c>
       <c r="C215" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E215" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O215" t="s">
@@ -19651,8 +20510,12 @@
       <c r="U215">
         <v>104</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W215">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>491</v>
       </c>
@@ -19660,15 +20523,19 @@
         <v>-98</v>
       </c>
       <c r="C216" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E216" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W216">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>492</v>
       </c>
@@ -19676,15 +20543,19 @@
         <v>-54</v>
       </c>
       <c r="C217" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E217" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W217">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>493</v>
       </c>
@@ -19692,15 +20563,19 @@
         <v>-35</v>
       </c>
       <c r="C218" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E218" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W218">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>494</v>
       </c>
@@ -19708,15 +20583,19 @@
         <v>20</v>
       </c>
       <c r="C219" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E219" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W219">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>495</v>
       </c>
@@ -19724,12 +20603,16 @@
         <v>82</v>
       </c>
       <c r="C220" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E220" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
+      </c>
+      <c r="W220">
+        <f t="shared" si="11"/>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -19741,8 +20624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
